--- a/CBA.xlsx
+++ b/CBA.xlsx
@@ -583,7 +583,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -750,11 +750,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="75887841"/>
-        <c:axId val="850786"/>
+        <c:axId val="16649746"/>
+        <c:axId val="18711231"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75887841"/>
+        <c:axId val="16649746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="850786"/>
+        <c:crossAx val="18711231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="850786"/>
+        <c:axId val="18711231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75887841"/>
+        <c:crossAx val="16649746"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -864,7 +864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -984,11 +984,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="78232682"/>
-        <c:axId val="23538467"/>
+        <c:axId val="21940282"/>
+        <c:axId val="39820011"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78232682"/>
+        <c:axId val="21940282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23538467"/>
+        <c:crossAx val="39820011"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23538467"/>
+        <c:axId val="39820011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1067,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78232682"/>
+        <c:crossAx val="21940282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1134,16 +1134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>264240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1151,7 +1151,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5366880" y="185040"/>
+        <a:off x="5662080" y="147240"/>
         <a:ext cx="2420280" cy="2277360"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2153,7 +2153,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2362,10 +2362,7 @@
       <c r="E13" s="30" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="42" t="n">
-        <f aca="false">C13+NPV(B$2,D13:E13)</f>
-        <v>0.8</v>
-      </c>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="s">
@@ -2386,6 +2383,10 @@
       <c r="E14" s="44" t="n">
         <f aca="false">Budžet*E13</f>
         <v>30000</v>
+      </c>
+      <c r="F14" s="33" t="n">
+        <f aca="false">B14+NPV(A$2,C14:E14)</f>
+        <v>150000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,6 +2415,10 @@
       <c r="E16" s="47" t="n">
         <f aca="false">E14-E11</f>
         <v>27000</v>
+      </c>
+      <c r="F16" s="33" t="n">
+        <f aca="false">B16+NPV(A$2,C16:E16)</f>
+        <v>21380</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CBA.xlsx
+++ b/CBA.xlsx
@@ -160,7 +160,7 @@
     <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,18 +213,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -562,16 +550,16 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF4A7EBB"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -583,7 +571,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -750,11 +738,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16649746"/>
-        <c:axId val="18711231"/>
+        <c:axId val="84306617"/>
+        <c:axId val="2725567"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16649746"/>
+        <c:axId val="84306617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18711231"/>
+        <c:crossAx val="2725567"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18711231"/>
+        <c:axId val="2725567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,238 +824,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16649746"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>NPV (kumulativ)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Projekt!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Projekt!$B$15:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="21940282"/>
-        <c:axId val="39820011"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="21940282"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39820011"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39820011"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="21940282"/>
+        <c:crossAx val="84306617"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,41 +887,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5662080" y="147240"/>
-        <a:ext cx="2420280" cy="2277360"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1344,7 +1066,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
@@ -2153,7 +1875,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2479,7 +2201,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
